--- a/Intro to Analytic Modelling - MMA 863/Assignment 3/MMA 863 Team Assignment 3 Data File v1.0.xlsx
+++ b/Intro to Analytic Modelling - MMA 863/Assignment 3/MMA 863 Team Assignment 3 Data File v1.0.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwr\Documents\Teaching\Courses\MMA 863\MMA 863 S2020\Assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.dong\Downloads\MMA\Intro to Analytic Modelling - MMA 863\Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="10845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="4860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bulbs" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
+    <sheet name="Bulbs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,34 +26,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Bulb number</t>
   </si>
   <si>
     <t>Burn time (yrs)</t>
   </si>
+  <si>
+    <t>annual cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>New annual cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,14 +140,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -95,6 +190,273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.410852713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.623923613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.836994513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.050065413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.263136313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.476207213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.689278113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.902349013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.115419913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.328490813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84528336"/>
+        <c:axId val="84528728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84528336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84528728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84528728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84528336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,825 +722,1788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" thickBot="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.4762931574755598</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.20219902480541807</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10109951240270904</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>198</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-56.124098334381891</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7.6264775415035809E-124</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.6525857836178461</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.5252955083007162E-123</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.9720174778363073</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>3.4108527131782944</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <v>3.6239236131450996</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>3.8369945131119048</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>4.0500654130787099</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>4.2631363130455151</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>4.4762072130123212</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>4.6892781129791263</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>4.9023490129459315</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
+        <v>5.1154199129127367</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>5.3284908128795418</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="2">
+        <f>(2+20)/B2</f>
+        <v>4.2471042471042475</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">(2+20)/B3</f>
+        <v>4.2226487523992322</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8351648351648358</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4108527131782944</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9355992844364938</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>4.3600000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.045871559633027</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7162162162162162</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>5.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8800705467372136</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3737574552683895</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7930283224400876</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7413793103448283</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0113895216400914</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.39121756487026</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1825095057034218</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1745730550284632</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8672566371681416</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2718446601941746</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6808510638297873</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4897959183673466</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8938053097345131</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6423841059602649</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0740740740740735</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0968342644320295</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6709129511677281</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3137254901960791</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0145985401459852</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>5.541561712846347</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0293040293040292</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>5.86</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7542662116040955</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5360824742268049</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2801556420233462</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0293040293040292</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3392504930966469</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6315789473684212</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5548654244306421</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7930283224400876</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9327354260089686</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8351648351648358</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4624746450304258</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2389210019267818</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4265593561368215</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7109207708779444</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8596491228070176</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7109207708779444</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3789731051344747</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1764705882352944</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2145593869731801</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>4.517453798767967</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6218487394957988</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8245614035087723</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>6.01</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6605657237936775</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5081967213114753</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>4.8099999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5738045738045745</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8245614035087723</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0113895216400914</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9711191335740073</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3392504930966469</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C101" si="1">(2+20)/B67</f>
+        <v>4.3392504930966469</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0366972477064218</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9426523297491038</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9497307001795332</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5548654244306421</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0691244239631335</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1522248243559723</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>4.28</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1401869158878499</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6218487394957988</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5548654244306421</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>4.526748971193415</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2801556420233462</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7931034482758621</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2801556420233462</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3307086614173231</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9773755656108598</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7311827956989241</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>4.296875</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>4.2300000000000004</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2009456264775409</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5548654244306421</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0590405904059041</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>4.3600000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>5.045871559633027</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9661399548532739</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>5.63</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9076376554174068</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6218487394957988</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3052837573385512</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4989775051124745</v>
+      </c>
+      <c r="D95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>4.63</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7516198704103676</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0574712643678161</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0441176470588234</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0441176470588234</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>4.435483870967742</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="1">
         <v>5.47</v>
       </c>
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0219378427787937</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>